--- a/data/BppTrend/Transformation_Validation_Files/BOE Equipment Index Factors and Percent Good Factors Sample_Transformation Rules.xlsx
+++ b/data/BppTrend/Transformation_Validation_Files/BOE Equipment Index Factors and Percent Good Factors Sample_Transformation Rules.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sikbhamb\Project\APAS_Automation\qa_automation\data\BppTrend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sikbhamb\Project\APAS_Automation\qa_automation\data\BppTrend\Transformation_Validation_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" tabRatio="938" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" tabRatio="938" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Document Details" sheetId="7" r:id="rId1"/>
@@ -183,9 +183,6 @@
     <t>1X0Y6Z</t>
   </si>
   <si>
-    <t>2012AB</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -193,6 +190,9 @@
   </si>
   <si>
     <t>7B</t>
+  </si>
+  <si>
+    <t>2013AB</t>
   </si>
 </sst>
 </file>
@@ -289,7 +289,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -339,6 +339,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -654,9 +657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
@@ -1237,7 +1238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
@@ -1257,8 +1258,8 @@
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="13">
-      <c r="A2" s="7">
-        <v>2019</v>
+      <c r="A2" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="B2" s="7">
         <v>105</v>
@@ -1266,8 +1267,8 @@
       <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:3" ht="13">
-      <c r="A3" s="7">
-        <v>2018</v>
+      <c r="A3" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="B3" s="7">
         <v>106</v>
@@ -1275,23 +1276,23 @@
       <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="7">
-        <v>2017</v>
+      <c r="A4" s="16">
+        <v>20</v>
       </c>
       <c r="B4" s="2">
         <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="6">
-        <v>2016</v>
+      <c r="A5" s="16">
+        <v>2015</v>
       </c>
       <c r="B5" s="2">
         <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="6">
+      <c r="A6" s="16">
         <v>2015</v>
       </c>
       <c r="B6" s="2">
@@ -1299,23 +1300,23 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6">
-        <v>2014</v>
+      <c r="A7" s="16">
+        <v>-2014</v>
       </c>
       <c r="B7" s="2">
         <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6">
-        <v>2013</v>
+      <c r="A8" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="B8" s="2">
         <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6">
+      <c r="A9" s="7">
         <v>2012</v>
       </c>
       <c r="B9" s="2">
@@ -1910,7 +1911,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24:M25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
@@ -4966,9 +4969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
@@ -4994,6 +4995,9 @@
       </c>
     </row>
     <row r="2" spans="1:5">
+      <c r="A2">
+        <v>2019</v>
+      </c>
       <c r="B2">
         <v>1</v>
       </c>
@@ -5008,8 +5012,8 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="17" t="s">
-        <v>43</v>
+      <c r="A3" s="17">
+        <v>2018</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5025,8 +5029,8 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="17" t="s">
-        <v>44</v>
+      <c r="A4" s="17">
+        <v>2017</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5043,7 +5047,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20</v>
+        <v>2016</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5077,7 +5081,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5094,7 +5098,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>-2013</v>
+        <v>2013</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5110,8 +5114,8 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="19" t="s">
-        <v>48</v>
+      <c r="A9" s="19">
+        <v>2012</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5373,7 +5377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
@@ -5535,7 +5539,7 @@
         <v>2015</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>58</v>
@@ -5564,7 +5568,7 @@
         <v>2014</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>52</v>
@@ -5593,7 +5597,7 @@
         <v>2013</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>47</v>
